--- a/outputs-HGR-r202/f__CAG-138.xlsx
+++ b/outputs-HGR-r202/f__CAG-138.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -553,6 +558,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -601,6 +611,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -649,6 +664,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -697,6 +717,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -745,6 +770,11 @@
           <t>g__UBA1685</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>g__UBA1685</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -793,6 +823,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -841,6 +876,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -889,6 +929,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -937,6 +982,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -985,6 +1035,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1033,6 +1088,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1081,6 +1141,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1129,6 +1194,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1177,6 +1247,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1225,6 +1300,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1273,6 +1353,11 @@
           <t>g__Phil1</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1321,6 +1406,11 @@
           <t>g__UBA1685</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>g__UBA1685</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1369,6 +1459,11 @@
           <t>g__UMGS693</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>g__UMGS693</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1413,6 +1508,11 @@
         <v>0.9964770554698177</v>
       </c>
       <c r="N20" t="inlineStr">
+        <is>
+          <t>g__UBA1685</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
         <is>
           <t>g__UBA1685</t>
         </is>

--- a/outputs-HGR-r202/f__CAG-138.xlsx
+++ b/outputs-HGR-r202/f__CAG-138.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,97 +514,97 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10417.fa</t>
+          <t>even_MAG-GUT1026.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.851978964840079e-09</v>
+        <v>0.008239549529945637</v>
       </c>
       <c r="C2" t="n">
-        <v>1.797922754240805e-09</v>
+        <v>1.287263438155366e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9979179284568813</v>
+        <v>7.698560276328419e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>4.682772635775262e-07</v>
+        <v>0.02827111879592957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001826537205228722</v>
+        <v>3.622934971727705e-07</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001077462226408843</v>
+        <v>0.1001328824603543</v>
       </c>
       <c r="H2" t="n">
-        <v>5.286157466976968e-06</v>
+        <v>6.556492804865581e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>4.569930599894996e-08</v>
+        <v>2.523722732655066e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.141734547966726e-08</v>
+        <v>0.8434401028162308</v>
       </c>
       <c r="K2" t="n">
-        <v>2.586536766755536e-08</v>
+        <v>0.01649607188472995</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001419250485975801</v>
+        <v>0.003250837197735838</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9979179284568813</v>
+        <v>0.8434401028162308</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22878.fa</t>
+          <t>even_MAG-GUT10417.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.181598581725913e-08</v>
+        <v>3.851978964840079e-09</v>
       </c>
       <c r="C3" t="n">
-        <v>5.067211374087502e-10</v>
+        <v>1.797922754240805e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9981776813944537</v>
+        <v>0.9979179284568813</v>
       </c>
       <c r="E3" t="n">
-        <v>4.026798208023967e-07</v>
+        <v>4.682772635775262e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007909530036506781</v>
+        <v>0.001826537205228722</v>
       </c>
       <c r="G3" t="n">
-        <v>9.339944119563949e-05</v>
+        <v>0.0001077462226408843</v>
       </c>
       <c r="H3" t="n">
-        <v>1.829843252709219e-05</v>
+        <v>5.286157466976968e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>4.710105333939494e-08</v>
+        <v>4.569930599894996e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>4.133893243965779e-07</v>
+        <v>3.141734547966726e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>1.310970035648589e-07</v>
+        <v>2.586536766755536e-08</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009186611382636752</v>
+        <v>0.0001419250485975801</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9981776813944537</v>
+        <v>0.9979179284568813</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -620,415 +620,415 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28136.fa</t>
+          <t>even_MAG-GUT1139.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.007170877372653e-08</v>
+        <v>0.00268910901416896</v>
       </c>
       <c r="C4" t="n">
-        <v>8.272939271463594e-10</v>
+        <v>1.612467694576823e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9972768463091405</v>
+        <v>5.453730362550845e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.009675654747796e-07</v>
+        <v>0.01309026272806053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002405952595323126</v>
+        <v>1.119928381164889e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>4.387066322503874e-05</v>
+        <v>0.02851512488608773</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01096411066604e-06</v>
+        <v>1.168927010699912e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.271441643859237e-08</v>
+        <v>9.123393938698034e-06</v>
       </c>
       <c r="J4" t="n">
-        <v>2.928591582608428e-08</v>
+        <v>0.9467847230646368</v>
       </c>
       <c r="K4" t="n">
-        <v>1.352310390576678e-08</v>
+        <v>0.007821442831646186</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002721320781964253</v>
+        <v>0.001023714268121172</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9972768463091405</v>
+        <v>0.9467847230646368</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40857.fa</t>
+          <t>even_MAG-GUT11412.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.098860640746716e-10</v>
+        <v>0.2912075907700659</v>
       </c>
       <c r="C5" t="n">
-        <v>8.559705192788791e-09</v>
+        <v>0.3280980279464726</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9728570169866432</v>
+        <v>0.09339994119631051</v>
       </c>
       <c r="E5" t="n">
-        <v>9.752867528472167e-08</v>
+        <v>0.1179198380219326</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02713025273427079</v>
+        <v>0.0003561756732413101</v>
       </c>
       <c r="G5" t="n">
-        <v>1.052044274082763e-05</v>
+        <v>0.003616310678714408</v>
       </c>
       <c r="H5" t="n">
-        <v>3.337311902255836e-11</v>
+        <v>0.0001361616094332525</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49855528019589e-08</v>
+        <v>2.092131295334107e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.648405211181766e-09</v>
+        <v>0.01232167145482187</v>
       </c>
       <c r="K5" t="n">
-        <v>1.005207559715257e-09</v>
+        <v>0.0006966259034533029</v>
       </c>
       <c r="L5" t="n">
-        <v>2.082665539947195e-06</v>
+        <v>0.1522267354326008</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9728570169866432</v>
+        <v>0.3280980279464726</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__PeH17</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__PeH17(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41924.fa</t>
+          <t>even_MAG-GUT1148.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.45692444111109e-05</v>
+        <v>0.00953033910380394</v>
       </c>
       <c r="C6" t="n">
-        <v>7.158241118278724e-06</v>
+        <v>2.109642758999775e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.000599774731548542</v>
+        <v>0.0002331694458425026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001391385886403803</v>
+        <v>0.01748135923732925</v>
       </c>
       <c r="F6" t="n">
-        <v>1.820220892268575e-08</v>
+        <v>2.875813968622277e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>6.975515866268347e-07</v>
+        <v>0.2067121731750073</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9939075454712861</v>
+        <v>9.043582565251268e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>1.970720948385128e-07</v>
+        <v>6.570787341332801e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>0.004379973772419855</v>
+        <v>0.7502476481801391</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0009194714749409848</v>
+        <v>0.001886623218859261</v>
       </c>
       <c r="L6" t="n">
-        <v>3.14556497443228e-05</v>
+        <v>0.01389257472343917</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9939075454712861</v>
+        <v>0.7502476481801391</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>g__UBA1685</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>g__UBA1685</t>
+          <t>g__UMGS1241(reject)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42485.fa</t>
+          <t>even_MAG-GUT12217.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.975487792594595e-06</v>
+        <v>0.3302845277320752</v>
       </c>
       <c r="C7" t="n">
-        <v>1.168069644455394e-07</v>
+        <v>0.1912778937981367</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9947697417374313</v>
+        <v>0.1302921001066891</v>
       </c>
       <c r="E7" t="n">
-        <v>1.088329373856915e-06</v>
+        <v>0.03308243856378699</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0001387838052708323</v>
+        <v>0.0005334522965676926</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001622022726460425</v>
+        <v>0.002444634601922868</v>
       </c>
       <c r="H7" t="n">
-        <v>7.227067083728036e-06</v>
+        <v>9.2260675317514e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>4.54919363969904e-08</v>
+        <v>5.754608644816048e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>1.486306477163722e-07</v>
+        <v>0.004176656943853568</v>
       </c>
       <c r="K7" t="n">
-        <v>7.842968446876781e-09</v>
+        <v>8.579993260220474e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.004918662527884446</v>
+        <v>0.3078075153481892</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9947697417374313</v>
+        <v>0.3302845277320752</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024(reject)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42584.fa</t>
+          <t>even_MAG-GUT13955.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.319229838936264e-10</v>
+        <v>0.383635720541129</v>
       </c>
       <c r="C8" t="n">
-        <v>6.541476501356898e-11</v>
+        <v>0.1680787057491448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9872080206163237</v>
+        <v>0.08640610032653713</v>
       </c>
       <c r="E8" t="n">
-        <v>1.556907221198925e-08</v>
+        <v>0.09202237457883231</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01274220308418699</v>
+        <v>0.0001838287374262173</v>
       </c>
       <c r="G8" t="n">
-        <v>4.267037895543013e-06</v>
+        <v>0.006566531948024705</v>
       </c>
       <c r="H8" t="n">
-        <v>1.583308904713558e-08</v>
+        <v>7.817634637922953e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>9.411252259856255e-09</v>
+        <v>1.207128283273232e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02872140112587e-09</v>
+        <v>0.01162136516725845</v>
       </c>
       <c r="K8" t="n">
-        <v>4.21332923055055e-09</v>
+        <v>0.0001807521083777975</v>
       </c>
       <c r="L8" t="n">
-        <v>4.546290879168379e-05</v>
+        <v>0.2512143732140577</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9872080206163237</v>
+        <v>0.383635720541129</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024(reject)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52107.fa</t>
+          <t>even_MAG-GUT18024.fa</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.464863634283493e-07</v>
+        <v>0.2910967218072957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003928216274542208</v>
+        <v>0.259544099235159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9750177818404906</v>
+        <v>0.1478101103345139</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003835706983282131</v>
+        <v>0.05193441186795461</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0007995053195998748</v>
+        <v>0.0003300457785316221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007930494770579903</v>
+        <v>0.004695648307247538</v>
       </c>
       <c r="H9" t="n">
-        <v>1.965478412001255e-06</v>
+        <v>1.22228717475735e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1.633514626141141e-05</v>
+        <v>1.267110516272907e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001601621167756428</v>
+        <v>0.004367458432207444</v>
       </c>
       <c r="K9" t="n">
-        <v>3.454697783706188e-06</v>
+        <v>6.294447047815218e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01184152553299736</v>
+        <v>0.2401336657897019</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9750177818404906</v>
+        <v>0.2910967218072957</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024(reject)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52138.fa</t>
+          <t>even_MAG-GUT19599.fa</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.955430262172926e-09</v>
+        <v>0.2971362426577295</v>
       </c>
       <c r="C10" t="n">
-        <v>8.056234135819843e-06</v>
+        <v>0.2116347702672836</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9982777002845469</v>
+        <v>0.09499014905844258</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001591483044561614</v>
+        <v>0.1231340426522573</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001009788580413468</v>
+        <v>0.0003205546552652693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001209197466456093</v>
+        <v>0.008487262490047508</v>
       </c>
       <c r="H10" t="n">
-        <v>5.665631626274686e-07</v>
+        <v>0.0001123851951137796</v>
       </c>
       <c r="I10" t="n">
-        <v>5.434506115144378e-07</v>
+        <v>2.179792259623428e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4.687733773969536e-06</v>
+        <v>0.01483858017573777</v>
       </c>
       <c r="K10" t="n">
-        <v>3.961700128053412e-08</v>
+        <v>0.0002937792293028352</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002390745323841917</v>
+        <v>0.2490304356962235</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9982777002845469</v>
+        <v>0.2971362426577295</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024(reject)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5727.fa</t>
+          <t>even_MAG-GUT22878.fa</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.064801104850978e-08</v>
+        <v>1.181598581725913e-08</v>
       </c>
       <c r="C11" t="n">
-        <v>2.716460039106653e-09</v>
+        <v>5.067211374087502e-10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9968084736157886</v>
+        <v>0.9981776813944537</v>
       </c>
       <c r="E11" t="n">
-        <v>2.54161871099999e-07</v>
+        <v>4.026798208023967e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00060161116884096</v>
+        <v>0.0007909530036506781</v>
       </c>
       <c r="G11" t="n">
-        <v>7.97883160598338e-05</v>
+        <v>9.339944119563949e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1064618677485e-05</v>
+        <v>1.829843252709219e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>3.05188294229951e-08</v>
+        <v>4.710105333939494e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>3.369015941028708e-08</v>
+        <v>4.133893243965779e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>4.248851636070932e-09</v>
+        <v>1.310970035648589e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002478716296450552</v>
+        <v>0.0009186611382636752</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9968084736157886</v>
+        <v>0.9981776813944537</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1044,44 +1044,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59039.fa</t>
+          <t>even_MAG-GUT28136.fa</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.732726705130447e-08</v>
+        <v>2.007170877372653e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>6.923433353281096e-09</v>
+        <v>8.272939271463594e-10</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9976558847265428</v>
+        <v>0.9972768463091405</v>
       </c>
       <c r="E12" t="n">
-        <v>4.544815265303269e-07</v>
+        <v>1.009675654747796e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0006818052182803686</v>
+        <v>0.002405952595323126</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002181091901106673</v>
+        <v>4.387066322503874e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>8.017061091321548e-05</v>
+        <v>1.01096411066604e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>4.014315312305119e-08</v>
+        <v>2.271441643859237e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>9.176483365463175e-08</v>
+        <v>2.928591582608428e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>1.019827384573229e-08</v>
+        <v>1.352310390576678e-08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001363379415665676</v>
+        <v>0.0002721320781964253</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9976558847265428</v>
+        <v>0.9972768463091405</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1097,97 +1097,97 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61159.fa</t>
+          <t>even_MAG-GUT39136.fa</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.190891695424691e-07</v>
+        <v>0.2449658277428858</v>
       </c>
       <c r="C13" t="n">
-        <v>6.4614380854262e-09</v>
+        <v>0.3809597278620395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9975226036613513</v>
+        <v>0.111556704470373</v>
       </c>
       <c r="E13" t="n">
-        <v>2.836180109742096e-07</v>
+        <v>0.1110473267808092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001443846036736706</v>
+        <v>0.0004805510739659066</v>
       </c>
       <c r="G13" t="n">
-        <v>4.909340278535033e-05</v>
+        <v>0.003248399433764766</v>
       </c>
       <c r="H13" t="n">
-        <v>2.153624833709163e-05</v>
+        <v>1.440525456021097e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.153287121644141e-08</v>
+        <v>1.810894383357548e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>5.914293519833049e-08</v>
+        <v>0.006554674449032937</v>
       </c>
       <c r="K13" t="n">
-        <v>2.841594041820255e-08</v>
+        <v>0.0001533162523499326</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0009622923904241806</v>
+        <v>0.1410009577363853</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9975226036613513</v>
+        <v>0.3809597278620395</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__PeH17</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__PeH17(reject)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61959.fa</t>
+          <t>even_MAG-GUT40857.fa</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.587562116031477e-07</v>
+        <v>4.098860640746716e-10</v>
       </c>
       <c r="C14" t="n">
-        <v>1.010495388566312e-07</v>
+        <v>8.559705192788791e-09</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9961043427351791</v>
+        <v>0.9728570169866432</v>
       </c>
       <c r="E14" t="n">
-        <v>1.006337123931694e-06</v>
+        <v>9.752867528472167e-08</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0001704365779389183</v>
+        <v>0.02713025273427079</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000149349847931664</v>
+        <v>1.052044274082763e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>9.874560191243632e-05</v>
+        <v>3.337311902255836e-11</v>
       </c>
       <c r="I14" t="n">
-        <v>3.419516897562808e-08</v>
+        <v>1.49855528019589e-08</v>
       </c>
       <c r="J14" t="n">
-        <v>1.166584783228749e-07</v>
+        <v>4.648405211181766e-09</v>
       </c>
       <c r="K14" t="n">
-        <v>7.607378636049419e-09</v>
+        <v>1.005207559715257e-09</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003475300633137615</v>
+        <v>2.082665539947195e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9961043427351791</v>
+        <v>0.9728570169866432</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1203,44 +1203,44 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77982.fa</t>
+          <t>even_MAG-GUT42485.fa</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.742721583688994e-10</v>
+        <v>1.975487792594595e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>6.36421523883063e-09</v>
+        <v>1.168069644455394e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9969851381854391</v>
+        <v>0.9947697417374313</v>
       </c>
       <c r="E15" t="n">
-        <v>5.368345380088374e-07</v>
+        <v>1.088329373856915e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002517509585126697</v>
+        <v>0.0001387838052708323</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000198095773444929</v>
+        <v>0.0001622022726460425</v>
       </c>
       <c r="H15" t="n">
-        <v>1.155866758693528e-08</v>
+        <v>7.227067083728036e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>3.776809187357548e-08</v>
+        <v>4.54919363969904e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>2.451004213001514e-08</v>
+        <v>1.486306477163722e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>9.796141857246005e-10</v>
+        <v>7.842968446876781e-09</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002986380665481328</v>
+        <v>0.004918662527884446</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9969851381854391</v>
+        <v>0.9947697417374313</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1256,44 +1256,44 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78879.fa</t>
+          <t>even_MAG-GUT42584.fa</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.175514183984045e-07</v>
+        <v>2.319229838936264e-10</v>
       </c>
       <c r="C16" t="n">
-        <v>9.842263330778781e-07</v>
+        <v>6.541476501356898e-11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9971222535729529</v>
+        <v>0.9872080206163237</v>
       </c>
       <c r="E16" t="n">
-        <v>2.622080241733945e-05</v>
+        <v>1.556907221198925e-08</v>
       </c>
       <c r="F16" t="n">
-        <v>2.127680909431722e-05</v>
+        <v>0.01274220308418699</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00103198077751199</v>
+        <v>4.267037895543013e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>9.596844514974104e-05</v>
+        <v>1.583308904713558e-08</v>
       </c>
       <c r="I16" t="n">
-        <v>3.088115137576594e-07</v>
+        <v>9.411252259856255e-09</v>
       </c>
       <c r="J16" t="n">
-        <v>6.681769360504259e-06</v>
+        <v>1.02872140112587e-09</v>
       </c>
       <c r="K16" t="n">
-        <v>2.598470771451192e-07</v>
+        <v>4.21332923055055e-09</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00169364738717077</v>
+        <v>4.546290879168379e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9971222535729529</v>
+        <v>0.9872080206163237</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1309,210 +1309,846 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78908.fa</t>
+          <t>even_MAG-GUT4338.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.060012339813766e-08</v>
+        <v>0.3363270359012463</v>
       </c>
       <c r="C17" t="n">
-        <v>1.064230804001727e-08</v>
+        <v>0.182140500383272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9977652404492442</v>
+        <v>0.09924080806296764</v>
       </c>
       <c r="E17" t="n">
-        <v>1.114874483883079e-06</v>
+        <v>0.1265216252611432</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008876294766600774</v>
+        <v>0.0003158169787499478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0009090693457613385</v>
+        <v>0.01185090070195357</v>
       </c>
       <c r="H17" t="n">
-        <v>3.687015769066301e-08</v>
+        <v>0.0001392399709037259</v>
       </c>
       <c r="I17" t="n">
-        <v>5.732459032203342e-08</v>
+        <v>1.75376861018751e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>8.632950101845645e-08</v>
+        <v>0.01264358158220635</v>
       </c>
       <c r="K17" t="n">
-        <v>7.358675887299975e-10</v>
+        <v>0.0005750801533456225</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004367433513027558</v>
+        <v>0.2302278733181098</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9977652404492442</v>
+        <v>0.3363270359012463</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>g__Phil1</t>
+          <t>g__CAG-1024(reject)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83946.fa</t>
+          <t>even_MAG-GUT49243.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.402281112810026e-05</v>
+        <v>0.00343468125515108</v>
       </c>
       <c r="C18" t="n">
-        <v>1.530099967762037e-07</v>
+        <v>8.869867810836508e-08</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003183478346982615</v>
+        <v>0.001194668425549209</v>
       </c>
       <c r="E18" t="n">
-        <v>4.938206972650877e-06</v>
+        <v>0.003103125406791502</v>
       </c>
       <c r="F18" t="n">
-        <v>3.954375821978818e-07</v>
+        <v>9.622851867179982e-07</v>
       </c>
       <c r="G18" t="n">
-        <v>1.118556122190956e-06</v>
+        <v>0.08339955752301874</v>
       </c>
       <c r="H18" t="n">
-        <v>0.996329910003852</v>
+        <v>5.026945239204137e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>3.050185842328892e-08</v>
+        <v>7.510407965040275e-07</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002502081885264659</v>
+        <v>0.8841194284098589</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001462245421168679</v>
+        <v>0.0009387339095083784</v>
       </c>
       <c r="L18" t="n">
-        <v>6.95203948616774e-05</v>
+        <v>0.02380297610022158</v>
       </c>
       <c r="M18" t="n">
-        <v>0.996329910003852</v>
+        <v>0.8841194284098589</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>g__UBA1685</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>g__UBA1685</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84692.fa</t>
+          <t>even_MAG-GUT49507.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.131886651953734e-05</v>
+        <v>0.007306907963734422</v>
       </c>
       <c r="C19" t="n">
-        <v>9.379676994907575e-06</v>
+        <v>2.562978185011797e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0003540758068426203</v>
+        <v>0.0001327259704578751</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006596799981309786</v>
+        <v>0.01433584663946936</v>
       </c>
       <c r="F19" t="n">
-        <v>1.784440358981729e-05</v>
+        <v>2.862040300996099e-07</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000368736574727645</v>
+        <v>0.03505920446624602</v>
       </c>
       <c r="H19" t="n">
-        <v>2.642615212508169e-05</v>
+        <v>2.126111619675798e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>3.863651697710998e-05</v>
+        <v>7.592947906883511e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07891252283989492</v>
+        <v>0.9339415437836335</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8243401053208625</v>
+        <v>0.006759302132266671</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08930415386015601</v>
+        <v>0.002435072478239984</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8243401053208625</v>
+        <v>0.9339415437836335</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>g__UMGS693</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>g__UMGS693</t>
+          <t>g__UMGS1241</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86514.fa</t>
+          <t>even_MAG-GUT52107.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.287235057124331e-05</v>
+        <v>2.464863634283493e-07</v>
       </c>
       <c r="C20" t="n">
-        <v>6.044111669992321e-07</v>
+        <v>0.0003928216274542208</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002357419230997524</v>
+        <v>0.9750177818404906</v>
       </c>
       <c r="E20" t="n">
-        <v>1.142334253476878e-05</v>
+        <v>0.003835706983282131</v>
       </c>
       <c r="F20" t="n">
-        <v>3.818190998239162e-07</v>
+        <v>0.0007995053195998748</v>
       </c>
       <c r="G20" t="n">
-        <v>1.483243618185218e-06</v>
+        <v>0.007930494770579903</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9964770554698177</v>
+        <v>1.965478412001255e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>3.811563723761598e-08</v>
+        <v>1.633514626141141e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0009056254089133849</v>
+        <v>0.0001601621167756428</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001827041544179159</v>
+        <v>3.454697783706188e-06</v>
       </c>
       <c r="L20" t="n">
-        <v>5.039245322518746e-05</v>
+        <v>0.01184152553299736</v>
       </c>
       <c r="M20" t="n">
-        <v>0.9964770554698177</v>
+        <v>0.9750177818404906</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT52138.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.955430262172926e-09</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.056234135819843e-06</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9982777002845469</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0001591483044561614</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0001009788580413468</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.001209197466456093</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.665631626274686e-07</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.434506115144378e-07</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.687733773969536e-06</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.961700128053412e-08</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0002390745323841917</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.9982777002845469</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT5727.fa</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2.064801104850978e-08</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.716460039106653e-09</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9968084736157886</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.54161871099999e-07</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.00060161116884096</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7.97883160598338e-05</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.1064618677485e-05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.05188294229951e-08</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.369015941028708e-08</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.248851636070932e-09</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.002478716296450552</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.9968084736157886</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT59039.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.732726705130447e-08</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.923433353281096e-09</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9976558847265428</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.544815265303269e-07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0006818052182803686</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0002181091901106673</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.017061091321548e-05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.014315312305119e-08</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.176483365463175e-08</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.019827384573229e-08</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.001363379415665676</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.9976558847265428</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61159.fa</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.190891695424691e-07</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.4614380854262e-09</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9975226036613513</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.836180109742096e-07</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.001443846036736706</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.909340278535033e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.153624833709163e-05</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.153287121644141e-08</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.914293519833049e-08</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.841594041820255e-08</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0009622923904241806</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9975226036613513</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61959.fa</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.587562116031477e-07</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.010495388566312e-07</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9961043427351791</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.006337123931694e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0001704365779389183</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000149349847931664</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.874560191243632e-05</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.419516897562808e-08</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.166584783228749e-07</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7.607378636049419e-09</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.003475300633137615</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9961043427351791</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6280.fa</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.003141263591146574</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.401488111139926e-07</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.000708421452178731</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.005215456181226358</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5.246123790600414e-07</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0491518223748251</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.032261328580966e-07</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.850109988425455e-06</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9321324065931486</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0008199166747705722</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.008827595035392599</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.9321324065931486</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>g__UMGS1241</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>g__UMGS1241</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT6290.fa</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.003141263591146574</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.401488111139926e-07</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.000708421452178731</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.005215456181226358</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.246123790600414e-07</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0491518223748251</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.032261328580966e-07</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.850109988425455e-06</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9321324065931486</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0008199166747705722</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.008827595035392599</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.9321324065931486</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>g__UMGS1241</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>g__UMGS1241</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT75471.fa</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3585042702861476</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.251999919221934</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0219514851090969</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1131737940180394</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0006286117945325111</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01351839653911196</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.535672764765866e-05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.794454017684746e-05</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01499720469224998</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0007099843058457117</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.2244730327652176</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3585042702861476</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>g__CAG-1024</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>g__CAG-1024(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT77982.fa</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.742721583688994e-10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.36421523883063e-09</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9969851381854391</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.368345380088374e-07</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002517509585126697</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.000198095773444929</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.155866758693528e-08</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.776809187357548e-08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.451004213001514e-08</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9.796141857246005e-10</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0002986380665481328</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.9969851381854391</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78879.fa</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.175514183984045e-07</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.842263330778781e-07</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9971222535729529</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.622080241733945e-05</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.127680909431722e-05</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.00103198077751199</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.596844514974104e-05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.088115137576594e-07</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.681769360504259e-06</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.598470771451192e-07</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.00169364738717077</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.9971222535729529</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT78908.fa</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.060012339813766e-08</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.064230804001727e-08</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9977652404492442</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.114874483883079e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0008876294766600774</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0009090693457613385</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.687015769066301e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.732459032203342e-08</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.632950101845645e-08</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.358675887299975e-10</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0004367433513027558</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.9977652404492442</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>g__Phil1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83946.fa</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.402281112810026e-05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.530099967762037e-07</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.003183478346982615</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.938206972650877e-06</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.954375821978818e-07</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.118556122190956e-06</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.996329910003852</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.050185842328892e-08</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0002502081885264659</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.0001462245421168679</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.95203948616774e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.996329910003852</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>g__UBA1685</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>g__UBA1685</t>
         </is>
